--- a/data/trans_camb/P32C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,05</t>
+          <t>-0,57; 4,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,8</t>
+          <t>-2,15; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,29</t>
+          <t>-2,44; 0,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 0,0</t>
+          <t>-3,59; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 0,0</t>
+          <t>-3,9; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,77</t>
+          <t>-2,33; 1,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,61</t>
+          <t>-0,94; 2,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,45</t>
+          <t>-1,98; 0,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,32</t>
+          <t>-1,89; 0,33</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 1042,33</t>
+          <t>-48,03; 1155,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 750,79</t>
+          <t>-67,19; 436,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 130,47</t>
+          <t>-100,0; 147,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,27</t>
+          <t>-1,41; 4,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,98</t>
+          <t>-1,39; 3,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,63</t>
+          <t>-2,55; 1,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,0</t>
+          <t>-3,4; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,0</t>
+          <t>-3,39; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,0</t>
+          <t>-3,42; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,61</t>
+          <t>-1,13; 2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,53</t>
+          <t>-1,52; 1,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,72</t>
+          <t>-1,78; 0,81</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,11</t>
+          <t>-2,21; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,54</t>
+          <t>-2,21; 1,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,4</t>
+          <t>-2,24; 1,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 9,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,9</t>
+          <t>-1,73; 0,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,67</t>
+          <t>-1,57; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,16</t>
+          <t>-1,68; 1,21</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,05; 230,82</t>
+          <t>-86,62; 195,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 351,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 235,78</t>
+          <t>-100,0; 294,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-88,29; 198,17</t>
+          <t>-86,68; 278,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 241,56</t>
+          <t>-80,23; 303,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 321,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,18</t>
+          <t>-2,15; 0,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,07</t>
+          <t>-2,45; 0,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,12</t>
+          <t>-2,82; 0,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,87</t>
+          <t>-2,98; 0,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,14</t>
+          <t>-2,48; 1,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,97</t>
+          <t>-3,18; 0,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,7</t>
+          <t>-1,84; 0,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,61</t>
+          <t>-1,89; 0,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,08</t>
+          <t>-2,59; -0,11</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,19; 82,11</t>
+          <t>-61,92; 62,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 73,99</t>
+          <t>-70,5; 60,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,48; 20,41</t>
+          <t>-80,19; 37,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 54,45</t>
+          <t>-63,52; 56,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,75; 47,09</t>
+          <t>-66,75; 54,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -2,27</t>
+          <t>-85,74; -2,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,59</t>
+          <t>-3,16; 2,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,9</t>
+          <t>-3,85; 1,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,03</t>
+          <t>-2,9; 3,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,56</t>
+          <t>-5,61; 0,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 0,0</t>
+          <t>-6,08; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,0</t>
+          <t>-4,32; 2,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,48</t>
+          <t>-2,85; 1,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,74</t>
+          <t>-3,28; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,97</t>
+          <t>-2,43; 1,99</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 185,27</t>
+          <t>-64,45; 201,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,49; 144,66</t>
+          <t>-79,05; 148,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,43; 216,78</t>
+          <t>-66,01; 221,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-68,82; 105,41</t>
+          <t>-68,37; 92,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 73,46</t>
+          <t>-83,08; 55,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,98; 143,21</t>
+          <t>-63,01; 152,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,69</t>
+          <t>-1,5; 2,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,86</t>
+          <t>-1,63; 2,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-4,51; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,4</t>
+          <t>-2,82; 0,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,01</t>
+          <t>-1,84; 2,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 8,37</t>
+          <t>-1,4; 7,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,9</t>
+          <t>-1,6; 0,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,73</t>
+          <t>-1,02; 1,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,33</t>
+          <t>-1,15; 4,26</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-84,14; —</t>
+          <t>-78,39; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,12</t>
+          <t>-0,73; 1,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,65</t>
+          <t>-1,12; 0,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,1</t>
+          <t>-1,47; 0,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,0</t>
+          <t>-1,51; 0,04</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,35</t>
+          <t>-1,26; 0,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,79</t>
+          <t>-1,18; 0,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,45</t>
+          <t>-0,81; 0,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,24</t>
+          <t>-0,96; 0,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,12</t>
+          <t>-1,2; 0,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 81,28</t>
+          <t>-32,87; 71,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 45,99</t>
+          <t>-48,46; 47,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 7,78</t>
+          <t>-61,03; 12,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,79</t>
+          <t>-100,0; 68,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-86,41; 90,44</t>
+          <t>-82,51; 111,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-76,83; 164,81</t>
+          <t>-78,04; 197,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 36,67</t>
+          <t>-42,79; 44,65</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 20,45</t>
+          <t>-50,01; 26,39</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 11,47</t>
+          <t>-61,68; 7,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
